--- a/reports/corpus_1-unigram_trigram-fold-4.xlsx
+++ b/reports/corpus_1-unigram_trigram-fold-4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>!</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,190 +446,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CDA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CDC</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CDF</t>
+          <t>CDI</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CDI</t>
+          <t>CON</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>CDO</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>CDP</t>
+          <t>FW</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>DRB</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>DS</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>FRB</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>NNP</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>NNU</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>PRL</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>PRN</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>PRP</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>TRB</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>UH</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>VBI</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>VBK</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>VBR</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>VBT</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>WDT</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>WPRB</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -642,124 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7368421052631579</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.92</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.5</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.725</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.900709219858156</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1897810218978102</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7213114754098361</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.9979296066252588</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.5704697986577181</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.7905405405405406</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9809523809523809</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04201680672268908</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.6362554541848473</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5115780496071938</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.119047619047619</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.08433734939759036</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.3793969849246231</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.222652520198566</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.8634586673836854</v>
+        <v>0.8662126191905068</v>
       </c>
     </row>
     <row r="3">
@@ -769,7 +633,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -778,37 +642,37 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.943089430894309</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.35467255334805</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -817,76 +681,25 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.96045197740113</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.9669421487603306</v>
       </c>
       <c r="T3" t="n">
-        <v>0.124546553808948</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.6362554541848473</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.8154549291512769</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.6521739130434783</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.3793969849246231</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.534819315398675</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.3793969849246231</v>
+        <v>0.6362554541848473</v>
       </c>
     </row>
     <row r="4">
@@ -896,124 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8484848484848484</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9894736842105264</v>
       </c>
       <c r="D4" t="n">
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.8197879858657244</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.9477611940298507</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7758620689655172</v>
+        <v>0.8869565217391304</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.3058823529411765</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8380952380952381</v>
+        <v>0.8210526315789474</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.523344191096634</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.2949308755760369</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.24</v>
+        <v>0.776978417266187</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.7157894736842105</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.8698884758364314</v>
       </c>
       <c r="T4" t="n">
-        <v>0.221030042918455</v>
+        <v>0.3090507726269316</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08000000000000002</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.6362554541848473</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5819089611393445</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.2127659574468085</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.04819277108433734</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.3793969849246231</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.2678052439397315</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.3676112695666217</v>
+        <v>0.6478113388418235</v>
       </c>
     </row>
     <row r="5">
@@ -1023,124 +785,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N5" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1359</v>
       </c>
       <c r="P5" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="T5" t="n">
-        <v>827</v>
+        <v>78</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.6362554541848473</v>
       </c>
       <c r="W5" t="n">
-        <v>18</v>
+        <v>2521</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.3793969849246231</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1194</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1194</v>
+        <v>2521</v>
       </c>
     </row>
   </sheetData>

--- a/reports/corpus_1-unigram_trigram-fold-4.xlsx
+++ b/reports/corpus_1-unigram_trigram-fold-4.xlsx
@@ -557,73 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9791666666666666</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H2" t="n">
-        <v>0.725</v>
+        <v>0.88125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.900709219858156</v>
+        <v>0.9432624113475178</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8225806451612904</v>
+        <v>0.9516129032258065</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1897810218978102</v>
+        <v>0.6204379562043796</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5833333333333334</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6964285714285714</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9979296066252588</v>
+        <v>0.9627329192546584</v>
       </c>
       <c r="P2" t="n">
-        <v>0.172972972972973</v>
+        <v>0.4108108108108108</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6352941176470588</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5704697986577181</v>
+        <v>0.7818791946308725</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7905405405405406</v>
+        <v>0.8783783783783784</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1866666666666667</v>
+        <v>0.624</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6362554541848473</v>
+        <v>0.8195160650535501</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5115780496071938</v>
+        <v>0.8274085492652949</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8662126191905068</v>
+        <v>0.8680386276432858</v>
       </c>
     </row>
     <row r="3">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -651,7 +651,7 @@
         <v>0.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.943089430894309</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9622641509433962</v>
+        <v>0.9365079365079365</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.7798165137614679</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.75</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.35467255334805</v>
+        <v>0.58125</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -681,25 +681,25 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.96045197740113</v>
+        <v>0.9282868525896414</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9669421487603306</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8974358974358975</v>
+        <v>0.8540145985401459</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6362554541848473</v>
+        <v>0.8195160650535501</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8154549291512769</v>
+        <v>0.872399812649405</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6362554541848473</v>
+        <v>0.8195160650535501</v>
       </c>
     </row>
     <row r="4">
@@ -709,73 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9894736842105264</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5714285714285715</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.8979591836734693</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.8275862068965518</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8197879858657244</v>
+        <v>0.9009584664536741</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9477611940298507</v>
+        <v>0.9708029197080292</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8869565217391304</v>
+        <v>0.944</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3058823529411765</v>
+        <v>0.6910569105691057</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8210526315789474</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0.523344191096634</v>
+        <v>0.724863600935308</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2949308755760369</v>
+        <v>0.5823754789272031</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.776978417266187</v>
+        <v>0.9820359281437125</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7157894736842105</v>
+        <v>0.848816029143898</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8698884758364314</v>
+        <v>0.8873720136518771</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3090507726269316</v>
+        <v>0.7211093990755009</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6362554541848473</v>
+        <v>0.8195160650535501</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5819089611393445</v>
+        <v>0.8379577958699056</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6478113388418235</v>
+        <v>0.8218095072783955</v>
       </c>
     </row>
     <row r="5">
@@ -785,67 +785,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="I5" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="L5" t="n">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="M5" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="O5" t="n">
-        <v>1359</v>
+        <v>800</v>
       </c>
       <c r="P5" t="n">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="R5" t="n">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="S5" t="n">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="T5" t="n">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="U5" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6362554541848473</v>
+        <v>0.8195160650535501</v>
       </c>
       <c r="W5" t="n">
         <v>2521</v>
